--- a/tempData/BB852 Class Data (Responses).xlsx
+++ b/tempData/BB852 Class Data (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="22">
   <si>
     <t>Timestamp</t>
   </si>
@@ -495,8 +495,8 @@
       <c r="C5" s="4">
         <v>176.0</v>
       </c>
-      <c r="D5" s="4">
-        <v>15.0</v>
+      <c r="D5" s="2">
+        <v>10.0</v>
       </c>
       <c r="E5" s="4">
         <v>16.0</v>
@@ -1313,8 +1313,8 @@
       <c r="C30" s="4">
         <v>172.0</v>
       </c>
-      <c r="D30" s="4">
-        <v>15.5</v>
+      <c r="D30" s="2">
+        <v>10.5</v>
       </c>
       <c r="E30" s="4">
         <v>22.0</v>
@@ -1379,8 +1379,8 @@
       <c r="C32" s="4">
         <v>180.0</v>
       </c>
-      <c r="D32" s="4">
-        <v>14.0</v>
+      <c r="D32" s="2">
+        <v>12.0</v>
       </c>
       <c r="E32" s="4">
         <v>15.0</v>
@@ -1548,6 +1548,9 @@
       <c r="C37" s="4">
         <v>173.0</v>
       </c>
+      <c r="D37" s="4">
+        <v>8.5</v>
+      </c>
       <c r="E37" s="4">
         <v>15.0</v>
       </c>
@@ -1860,8 +1863,8 @@
       <c r="C46" s="4">
         <v>161.0</v>
       </c>
-      <c r="D46" s="4">
-        <v>27.5</v>
+      <c r="D46" s="2">
+        <v>8.5</v>
       </c>
       <c r="E46" s="4">
         <v>3.0</v>
@@ -2000,6 +2003,9 @@
       <c r="C50" s="4">
         <v>153.0</v>
       </c>
+      <c r="D50" s="4">
+        <v>7.0</v>
+      </c>
       <c r="E50" s="4">
         <v>8.0</v>
       </c>
@@ -2229,6 +2235,76 @@
         <v>13</v>
       </c>
       <c r="K56" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3">
+        <v>44127.58882821759</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="4">
+        <v>192.0</v>
+      </c>
+      <c r="D57" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0.356</v>
+      </c>
+      <c r="I57" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3">
+        <v>44129.49891039352</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="4">
+        <v>161.0</v>
+      </c>
+      <c r="D58" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="E58" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0.217199999999999</v>
+      </c>
+      <c r="I58" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>21</v>
       </c>
     </row>

--- a/tempData/BB852 Class Data (Responses).xlsx
+++ b/tempData/BB852 Class Data (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="24">
   <si>
     <t>Timestamp</t>
   </si>
@@ -78,6 +78,12 @@
   <si>
     <t>Boardgames</t>
   </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>Prefer not to say</t>
+  </si>
 </sst>
 </file>
 
@@ -86,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -96,7 +102,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,7 +122,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -126,7 +131,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -390,886 +395,886 @@
       <c r="A2" s="3">
         <v>43738.57670538194</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
         <v>174.0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>9.0</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>10.0</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2">
         <v>0.0</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>0.2828</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="2">
         <v>26.0</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="5"/>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="3">
         <v>43741.34218489584</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
         <v>171.0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>8.0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>7.0</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
         <v>28.0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <v>0.3822</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="2">
         <v>25.0</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="5"/>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="3">
         <v>43741.36957628472</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
         <v>180.0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>9.5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>15.0</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2">
         <v>0.0</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <v>0.251</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="2">
         <v>35.0</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="3">
         <v>43741.36996409722</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
         <v>176.0</v>
       </c>
       <c r="D5" s="2">
         <v>10.0</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>16.0</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2">
         <v>12.0</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>0.259</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>31.0</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="3">
         <v>43741.3701603588</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
         <v>163.0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>8.0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>15.0</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2">
         <v>20.0</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <v>0.364</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <v>30.0</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="5"/>
+      <c r="J6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="3">
         <v>43741.37077819444</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
         <v>174.0</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>7.0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>13.0</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2">
         <v>7.0</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <v>0.3226</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
         <v>23.0</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="5"/>
+      <c r="J7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="3">
         <v>43741.37104400463</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
         <v>174.0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>9.0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>17.0</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2">
         <v>5.0</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <v>0.306</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
         <v>37.0</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="5"/>
+      <c r="J8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="3">
         <v>43741.37121603009</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
         <v>160.0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>8.0</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>12.0</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2">
         <v>14.0</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="2">
         <v>0.3</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="2">
         <v>34.0</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="5"/>
+      <c r="J9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" s="3">
         <v>43741.371250682874</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2">
         <v>186.0</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>10.0</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>19.0</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2">
         <v>0.0</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="2">
         <v>0.31</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="2">
         <v>32.0</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="3">
         <v>43741.37192277778</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2">
         <v>177.0</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>9.0</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>14.0</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <v>0.0</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="2">
         <v>0.265</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <v>28.0</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="5"/>
+      <c r="J11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="4"/>
     </row>
     <row r="12">
       <c r="A12" s="3">
         <v>43741.37193006944</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
         <v>180.0</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>8.0</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>5.0</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2">
         <v>0.0</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="2">
         <v>0.2938</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="2">
         <v>20.0</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13">
       <c r="A13" s="3">
         <v>43741.372451076386</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
         <v>182.0</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>8.5</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>16.0</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2">
         <v>14.0</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="2">
         <v>0.258</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="2">
         <v>32.0</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="5"/>
+      <c r="J13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="3">
         <v>43741.37282642361</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2">
         <v>186.0</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>10.0</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>19.0</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2">
         <v>14.5</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="2">
         <v>0.235</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="2">
         <v>26.0</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="5"/>
+      <c r="J14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" s="3">
         <v>43741.372995185186</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
         <v>173.0</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>8.0</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>14.0</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2">
         <v>0.0</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="2">
         <v>0.294</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="2">
         <v>24.0</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="5"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" s="3">
         <v>43741.37306974537</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
         <v>182.0</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>9.0</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>24.0</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="2">
         <v>7.5</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="2">
         <v>0.2914</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="2">
         <v>21.0</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="5"/>
+      <c r="J16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" s="3">
         <v>43741.37321791667</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
         <v>184.0</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>10.0</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>8.0</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2">
         <v>21.0</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="2">
         <v>0.2644</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="2">
         <v>27.0</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="5"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" s="3">
         <v>43741.37341184028</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2">
         <v>167.0</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>8.5</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>12.0</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2">
         <v>0.5</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="2">
         <v>0.313</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="2">
         <v>23.0</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="5"/>
+      <c r="J18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" s="3">
         <v>43741.3741644213</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2">
         <v>165.0</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>8.0</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>11.0</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2">
         <v>12.0</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="2">
         <v>0.28</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="2">
         <v>25.0</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="5"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" s="3">
         <v>43741.375476030094</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2">
         <v>180.0</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>11.0</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>9.0</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2">
         <v>0.0</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="2">
         <v>0.37</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="2">
         <v>46.0</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="5"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" s="3">
         <v>43741.37710890046</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2">
         <v>190.0</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>10.5</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>10.0</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2">
         <v>0.0</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="2">
         <v>0.291</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="2">
         <v>35.0</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="5"/>
+      <c r="J21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" s="3">
         <v>43741.378600208336</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2">
         <v>168.0</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>10.0</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>15.0</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="2">
         <v>16.0</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="2">
         <v>0.4022</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="2">
         <v>24.0</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="5"/>
+      <c r="J22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="4"/>
     </row>
     <row r="23">
       <c r="A23" s="3">
         <v>43741.385308136574</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="4">
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2">
         <v>162.0</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <v>6.5</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="2">
         <v>7.0</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="2">
         <v>2.0</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="2">
         <v>0.3968</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="2">
         <v>24.0</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="5"/>
+      <c r="J23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="4"/>
     </row>
     <row r="24">
       <c r="A24" s="3">
         <v>43741.38929450231</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="2">
         <v>178.0</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <v>10.0</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="2">
         <v>12.0</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2">
         <v>35.0</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="2">
         <v>0.44</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="2">
         <v>24.0</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="5"/>
+      <c r="K24" s="4"/>
     </row>
     <row r="25">
       <c r="A25" s="3">
         <v>43741.38930545139</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2">
         <v>193.0</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="2">
         <v>11.0</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>34.0</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2">
         <v>49.0</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="2">
         <v>0.317</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="2">
         <v>30.0</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="5"/>
+      <c r="K25" s="4"/>
     </row>
     <row r="26">
       <c r="A26" s="3">
         <v>43741.38975444445</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2">
         <v>166.0</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="2">
         <v>7.5</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="2">
         <v>26.0</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="4">
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2">
         <v>0.0</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="2">
         <v>0.5738</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="2">
         <v>19.0</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="5"/>
+      <c r="J26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="4"/>
     </row>
     <row r="27">
       <c r="A27" s="3">
         <v>43741.38987306713</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="4">
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2">
         <v>164.0</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="2">
         <v>7.1</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="2">
         <v>20.0</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="2">
         <v>0.0</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="2">
         <v>0.417</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="2">
         <v>25.0</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="5"/>
+      <c r="J27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="4"/>
     </row>
     <row r="28">
       <c r="A28" s="3">
         <v>43741.39039434028</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="B28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2">
         <v>173.0</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="2">
         <v>8.0</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="2">
         <v>12.0</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2">
         <v>5.0</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="2">
         <v>0.273</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="2">
         <v>26.0</v>
       </c>
     </row>
@@ -1277,229 +1282,229 @@
       <c r="A29" s="3">
         <v>43741.39066373842</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2">
         <v>176.0</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="2">
         <v>7.5</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="4">
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2">
         <v>9.0</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="2">
         <v>0.3314</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="2">
         <v>27.0</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K29" s="5"/>
+      <c r="J29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="4"/>
     </row>
     <row r="30">
       <c r="A30" s="3">
         <v>43741.39099738426</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="2">
         <v>172.0</v>
       </c>
       <c r="D30" s="2">
         <v>10.5</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="2">
         <v>22.0</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="4">
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2">
         <v>15.0</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="2">
         <v>0.3321</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="2">
         <v>23.0</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="5"/>
+      <c r="K30" s="4"/>
     </row>
     <row r="31">
       <c r="A31" s="3">
         <v>43741.391283680554</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="B31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="2">
         <v>170.0</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="2">
         <v>7.0</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="2">
         <v>16.0</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2">
         <v>28.0</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="2">
         <v>0.385</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="2">
         <v>21.0</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="5"/>
+      <c r="K31" s="4"/>
     </row>
     <row r="32">
       <c r="A32" s="3">
         <v>43741.39376377314</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="B32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="2">
         <v>180.0</v>
       </c>
       <c r="D32" s="2">
         <v>12.0</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="2">
         <v>15.0</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="4">
+      <c r="F32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="2">
         <v>10.0</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="2">
         <v>0.368</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="2">
         <v>19.0</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" s="5"/>
+      <c r="J32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="4"/>
     </row>
     <row r="33">
       <c r="A33" s="3">
         <v>43741.837019212966</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="4">
+      <c r="B33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="2">
         <v>173.0</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="2">
         <v>8.0</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="2">
         <v>13.0</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="4">
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2">
         <v>5.0</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="2">
         <v>0.388</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="2">
         <v>27.0</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" s="5"/>
+      <c r="J33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="4"/>
     </row>
     <row r="34">
       <c r="A34" s="3">
         <v>43748.962173321765</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="B34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="2">
         <v>179.0</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="2">
         <v>8.3</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="2">
         <v>7.0</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="4">
+      <c r="F34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="2">
         <v>10.0</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="2">
         <v>0.267</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="2">
         <v>32.0</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34" s="5"/>
+      <c r="J34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="4"/>
     </row>
     <row r="35">
       <c r="A35" s="3">
         <v>44092.6423362037</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="4">
+      <c r="B35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="2">
         <v>172.0</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="2">
         <v>7.3</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="2">
         <v>7.0</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="4">
+      <c r="F35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="2">
         <v>0.0</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="2">
         <v>0.3922</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="2">
         <v>25.0</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="J35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1507,34 +1512,34 @@
       <c r="A36" s="3">
         <v>44092.64520100695</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="4">
+      <c r="B36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="2">
         <v>170.0</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="2">
         <v>7.0</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="2">
         <v>11.0</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="4">
+      <c r="F36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="2">
         <v>0.0</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="2">
         <v>0.3288</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="2">
         <v>33.0</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K36" s="4" t="s">
+      <c r="J36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1542,34 +1547,34 @@
       <c r="A37" s="3">
         <v>44092.64637420139</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="4">
+      <c r="B37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="2">
         <v>173.0</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="2">
         <v>8.5</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="2">
         <v>15.0</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="4">
+      <c r="F37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="2">
         <v>2.0</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="2">
         <v>0.2978</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="2">
         <v>29.0</v>
       </c>
-      <c r="J37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K37" s="4" t="s">
+      <c r="J37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1577,34 +1582,34 @@
       <c r="A38" s="3">
         <v>44092.65225762731</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="4">
+      <c r="B38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="2">
         <v>178.0</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="2">
         <v>8.0</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="2">
         <v>16.0</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="4">
+      <c r="F38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="2">
         <v>14.0</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="2">
         <v>0.2678</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="2">
         <v>31.0</v>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" s="4" t="s">
+      <c r="J38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1612,34 +1617,34 @@
       <c r="A39" s="3">
         <v>44092.6523450463</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="4">
+      <c r="B39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="2">
         <v>181.0</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="2">
         <v>8.8</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="2">
         <v>4.0</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="4">
+      <c r="F39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="2">
         <v>2.0</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="2">
         <v>0.376</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="2">
         <v>23.0</v>
       </c>
-      <c r="J39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39" s="4" t="s">
+      <c r="J39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1647,34 +1652,34 @@
       <c r="A40" s="3">
         <v>44092.74054112269</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="4">
+      <c r="B40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="2">
         <v>185.0</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="2">
         <v>9.0</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="2">
         <v>9.0</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="4">
+      <c r="F40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="2">
         <v>1.0</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="2">
         <v>0.2128</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="2">
         <v>37.0</v>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K40" s="4" t="s">
+      <c r="J40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1682,34 +1687,34 @@
       <c r="A41" s="3">
         <v>44093.374701030094</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="4">
+      <c r="B41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="2">
         <v>168.0</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="2">
         <v>7.0</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="2">
         <v>4.0</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="4">
+      <c r="F41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="2">
         <v>0.0</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="2">
         <v>0.92</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="2">
         <v>31.0</v>
       </c>
-      <c r="J41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K41" s="4" t="s">
+      <c r="J41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1717,34 +1722,34 @@
       <c r="A42" s="3">
         <v>44094.594905833335</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="4">
+      <c r="B42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="2">
         <v>192.0</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="2">
         <v>8.0</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="2">
         <v>4.0</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="2">
         <v>14.0</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="2">
         <v>0.25</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="2">
         <v>33.0</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="J42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1752,34 +1757,34 @@
       <c r="A43" s="3">
         <v>44095.43531298611</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="4">
+      <c r="B43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="2">
         <v>181.0</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="2">
         <v>8.0</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="2">
         <v>7.0</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="2">
         <v>0.0</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="2">
         <v>0.2558</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="2">
         <v>28.0</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="J43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1787,34 +1792,34 @@
       <c r="A44" s="3">
         <v>44095.56063107639</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="4">
+      <c r="B44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="2">
         <v>163.0</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="2">
         <v>7.0</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="2">
         <v>8.0</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="4">
+      <c r="F44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="2">
         <v>0.33</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="2">
         <v>0.2828</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="2">
         <v>29.0</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1822,34 +1827,34 @@
       <c r="A45" s="3">
         <v>44096.813860752314</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="4">
+      <c r="B45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="2">
         <v>163.0</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="2">
         <v>8.5</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="2">
         <v>3.0</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="4">
+      <c r="F45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="2">
         <v>0.0</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="2">
         <v>0.2952</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="2">
         <v>27.0</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="K45" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1857,34 +1862,34 @@
       <c r="A46" s="3">
         <v>44097.71378791667</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="4">
+      <c r="B46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="2">
         <v>161.0</v>
       </c>
       <c r="D46" s="2">
         <v>8.5</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="2">
         <v>3.0</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="4">
+      <c r="F46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="2">
         <v>0.0</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="2">
         <v>0.3194</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="2">
         <v>32.0</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="J46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="K46" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1892,34 +1897,34 @@
       <c r="A47" s="3">
         <v>44100.53995627315</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="4">
+      <c r="B47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="2">
         <v>167.0</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="2">
         <v>8.0</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="2">
         <v>11.0</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="4">
+      <c r="F47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="2">
         <v>0.0</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="2">
         <v>0.262</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="2">
         <v>34.0</v>
       </c>
-      <c r="J47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K47" s="4" t="s">
+      <c r="J47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1927,34 +1932,34 @@
       <c r="A48" s="3">
         <v>44102.79543899305</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="4">
+      <c r="B48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="2">
         <v>200.0</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="2">
         <v>9.0</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="2">
         <v>10.0</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="4">
+      <c r="F48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="2">
         <v>0.0</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="2">
         <v>0.298</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="2">
         <v>40.0</v>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K48" s="4" t="s">
+      <c r="J48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1962,34 +1967,34 @@
       <c r="A49" s="3">
         <v>44103.60317578704</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="4">
+      <c r="B49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="2">
         <v>161.0</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="2">
         <v>8.0</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="2">
         <v>10.0</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="4">
+      <c r="F49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="2">
         <v>0.0</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="2">
         <v>0.2452</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="2">
         <v>41.0</v>
       </c>
-      <c r="J49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K49" s="4" t="s">
+      <c r="J49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1997,34 +2002,34 @@
       <c r="A50" s="3">
         <v>44103.87725292824</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="4">
+      <c r="B50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="2">
         <v>153.0</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="2">
         <v>7.0</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="2">
         <v>8.0</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="2">
         <v>0.0</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="2">
         <v>0.3036</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="2">
         <v>29.0</v>
       </c>
-      <c r="J50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K50" s="4" t="s">
+      <c r="J50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2032,34 +2037,34 @@
       <c r="A51" s="3">
         <v>44104.344854537034</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="4">
+      <c r="B51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="2">
         <v>163.0</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="2">
         <v>8.5</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="2">
         <v>22.0</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="4">
+      <c r="F51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="2">
         <v>21.0</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="2">
         <v>0.2814</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="2">
         <v>30.0</v>
       </c>
-      <c r="J51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K51" s="4" t="s">
+      <c r="J51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2067,34 +2072,34 @@
       <c r="A52" s="3">
         <v>44104.51532677084</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="4">
+      <c r="B52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="2">
         <v>167.0</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="2">
         <v>8.0</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="2">
         <v>8.0</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="4">
+      <c r="F52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="2">
         <v>0.0</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="2">
         <v>0.3494</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="2">
         <v>30.0</v>
       </c>
-      <c r="J52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K52" s="4" t="s">
+      <c r="J52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2102,34 +2107,34 @@
       <c r="A53" s="3">
         <v>44104.926914675925</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="4">
+      <c r="B53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="2">
         <v>173.0</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="2">
         <v>8.5</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="2">
         <v>8.0</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="2">
         <v>0.0</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="2">
         <v>0.237</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="2">
         <v>39.0</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="J53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K53" s="4" t="s">
+      <c r="K53" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2137,34 +2142,34 @@
       <c r="A54" s="3">
         <v>44105.5500378125</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="4">
+      <c r="B54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="2">
         <v>176.0</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="2">
         <v>9.0</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="2">
         <v>17.0</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="4">
+      <c r="F54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="2">
         <v>0.0</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="2">
         <v>0.35</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I54" s="2">
         <v>23.0</v>
       </c>
-      <c r="J54" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K54" s="4" t="s">
+      <c r="J54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2172,34 +2177,34 @@
       <c r="A55" s="3">
         <v>44105.71134571759</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="4">
+      <c r="B55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="2">
         <v>188.0</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="2">
         <v>9.0</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="2">
         <v>16.0</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="4">
+      <c r="F55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="2">
         <v>10.0</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="2">
         <v>0.279</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="2">
         <v>30.0</v>
       </c>
-      <c r="J55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K55" s="4" t="s">
+      <c r="J55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2207,34 +2212,34 @@
       <c r="A56" s="3">
         <v>44110.78401047454</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="4">
+      <c r="B56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="2">
         <v>197.0</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="2">
         <v>9.5</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="2">
         <v>8.0</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="4">
+      <c r="F56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="2">
         <v>32.0</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="2">
         <v>0.213</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I56" s="2">
         <v>40.0</v>
       </c>
-      <c r="J56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K56" s="4" t="s">
+      <c r="J56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2242,34 +2247,34 @@
       <c r="A57" s="3">
         <v>44127.58882821759</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="4">
+      <c r="B57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="2">
         <v>192.0</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="2">
         <v>9.0</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="2">
         <v>15.0</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="4">
+      <c r="F57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="2">
         <v>10.0</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="2">
         <v>0.356</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="2">
         <v>24.0</v>
       </c>
-      <c r="J57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K57" s="4" t="s">
+      <c r="J57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2277,34 +2282,1238 @@
       <c r="A58" s="3">
         <v>44129.49891039352</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="4">
+      <c r="B58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="2">
         <v>161.0</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="2">
         <v>7.3</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="2">
         <v>12.0</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="4">
+      <c r="F58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="2">
         <v>17.0</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="2">
         <v>0.217199999999999</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58" s="2">
         <v>36.0</v>
       </c>
-      <c r="J58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K58" s="4" t="s">
+      <c r="J58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3">
+        <v>44456.52181815972</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="2">
+        <v>181.0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.363</v>
+      </c>
+      <c r="I59" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3">
+        <v>44456.580647152776</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="2">
+        <v>168.0</v>
+      </c>
+      <c r="D60" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.3458</v>
+      </c>
+      <c r="I60" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3">
+        <v>44456.604630601854</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="2">
+        <v>158.0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="E61" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.305799999999999</v>
+      </c>
+      <c r="I61" s="2">
+        <v>46.0</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3">
+        <v>44456.87082486111</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="2">
+        <v>163.0</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3">
+        <v>44456.87579515047</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="2">
+        <v>163.0</v>
+      </c>
+      <c r="D63" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E63" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0.282599999999999</v>
+      </c>
+      <c r="I63" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3">
+        <v>44457.31156410879</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="2">
+        <v>170.0</v>
+      </c>
+      <c r="D64" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="E64" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I64" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3">
+        <v>44457.460833136574</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="2">
+        <v>194.0</v>
+      </c>
+      <c r="D65" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E65" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0.271</v>
+      </c>
+      <c r="I65" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3">
+        <v>44457.61338225694</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="2">
+        <v>181.0</v>
+      </c>
+      <c r="D66" s="2">
+        <v>9.7</v>
+      </c>
+      <c r="E66" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.275999999999999</v>
+      </c>
+      <c r="I66" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3">
+        <v>44457.65130677083</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="2">
+        <v>177.0</v>
+      </c>
+      <c r="D67" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E67" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0.325</v>
+      </c>
+      <c r="I67" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3">
+        <v>44458.450419560184</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="2">
+        <v>184.0</v>
+      </c>
+      <c r="D68" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="E68" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.232</v>
+      </c>
+      <c r="I68" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3">
+        <v>44458.635048854165</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="2">
+        <v>176.0</v>
+      </c>
+      <c r="D69" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E69" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.2642</v>
+      </c>
+      <c r="I69" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3">
+        <v>44458.6411500463</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="2">
+        <v>164.0</v>
+      </c>
+      <c r="D70" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E70" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3">
+        <v>44458.83758486111</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="2">
+        <v>174.0</v>
+      </c>
+      <c r="D71" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E71" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0.2262</v>
+      </c>
+      <c r="I71" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3">
+        <v>44458.89974266203</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="2">
+        <v>174.0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0.3092</v>
+      </c>
+      <c r="I72" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3">
+        <v>44458.9805714699</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="2">
+        <v>180.0</v>
+      </c>
+      <c r="D73" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="E73" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0.2976</v>
+      </c>
+      <c r="I73" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3">
+        <v>44459.35358047453</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="2">
+        <v>175.0</v>
+      </c>
+      <c r="D74" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="E74" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0.2502</v>
+      </c>
+      <c r="I74" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3">
+        <v>44459.58708438657</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="2">
+        <v>166.0</v>
+      </c>
+      <c r="D75" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="E75" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0.431</v>
+      </c>
+      <c r="I75" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3">
+        <v>44459.681092743056</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="2">
+        <v>178.0</v>
+      </c>
+      <c r="D76" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="E76" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0.2566</v>
+      </c>
+      <c r="I76" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3">
+        <v>44459.79188150463</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="2">
+        <v>161.0</v>
+      </c>
+      <c r="D77" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E77" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0.2622</v>
+      </c>
+      <c r="I77" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3">
+        <v>44459.793352673616</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="2">
+        <v>184.0</v>
+      </c>
+      <c r="D78" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E78" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0.2946</v>
+      </c>
+      <c r="I78" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3">
+        <v>44459.85724521991</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="2">
+        <v>167.0</v>
+      </c>
+      <c r="D79" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E79" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0.2672</v>
+      </c>
+      <c r="I79" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3">
+        <v>44460.430416180556</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="2">
+        <v>177.0</v>
+      </c>
+      <c r="D80" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E80" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0.2512</v>
+      </c>
+      <c r="I80" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3">
+        <v>44460.46595149305</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="2">
+        <v>177.0</v>
+      </c>
+      <c r="D81" s="2">
+        <v>8.8</v>
+      </c>
+      <c r="E81" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0.235</v>
+      </c>
+      <c r="I81" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3">
+        <v>44460.4756247801</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="2">
+        <v>170.0</v>
+      </c>
+      <c r="D82" s="2">
+        <v>8.3</v>
+      </c>
+      <c r="E82" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0.3074</v>
+      </c>
+      <c r="I82" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3">
+        <v>44460.476494953706</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="2">
+        <v>195.0</v>
+      </c>
+      <c r="D83" s="2">
+        <v>9.8</v>
+      </c>
+      <c r="E83" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0.216</v>
+      </c>
+      <c r="I83" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3">
+        <v>44460.477856736106</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="2">
+        <v>195.0</v>
+      </c>
+      <c r="D84" s="2">
+        <v>9.8</v>
+      </c>
+      <c r="E84" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0.216</v>
+      </c>
+      <c r="I84" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3">
+        <v>44460.47810173611</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="2">
+        <v>189.0</v>
+      </c>
+      <c r="D85" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E85" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0.2622</v>
+      </c>
+      <c r="I85" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3">
+        <v>44460.48049858796</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="2">
+        <v>173.0</v>
+      </c>
+      <c r="D86" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E86" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I86" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3">
+        <v>44460.48150105324</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="2">
+        <v>164.0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>8.3</v>
+      </c>
+      <c r="E87" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0.6536</v>
+      </c>
+      <c r="I87" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3">
+        <v>44460.51109570602</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="2">
+        <v>168.0</v>
+      </c>
+      <c r="D88" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E88" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0.793</v>
+      </c>
+      <c r="I88" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3">
+        <v>44460.51306648148</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="2">
+        <v>164.0</v>
+      </c>
+      <c r="D89" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E89" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0.3528</v>
+      </c>
+      <c r="I89" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3">
+        <v>44460.51614978009</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="2">
+        <v>182.0</v>
+      </c>
+      <c r="D90" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E90" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="I90" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3">
+        <v>44460.516440798616</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="2">
+        <v>183.0</v>
+      </c>
+      <c r="D91" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E91" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0.3434</v>
+      </c>
+      <c r="I91" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3">
+        <v>44461.983328842594</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="2">
+        <v>189.0</v>
+      </c>
+      <c r="D92" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E92" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0.3274</v>
+      </c>
+      <c r="I92" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3">
+        <v>44462.59686472222</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="2">
+        <v>171.0</v>
+      </c>
+      <c r="D93" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E93" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="I93" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K93" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/tempData/BB852 Class Data (Responses).xlsx
+++ b/tempData/BB852 Class Data (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="23">
   <si>
     <t>Timestamp</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Boardgames</t>
   </si>
   <si>
-    <t>026</t>
-  </si>
-  <si>
     <t>Prefer not to say</t>
   </si>
 </sst>
@@ -92,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -102,6 +99,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -131,7 +129,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -806,8 +804,8 @@
       <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="2">
-        <v>14.5</v>
+      <c r="G14" s="5">
+        <v>15.0</v>
       </c>
       <c r="H14" s="2">
         <v>0.235</v>
@@ -872,8 +870,8 @@
       <c r="F16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="2">
-        <v>7.5</v>
+      <c r="G16" s="5">
+        <v>8.0</v>
       </c>
       <c r="H16" s="2">
         <v>0.2914</v>
@@ -938,8 +936,8 @@
       <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="2">
-        <v>0.5</v>
+      <c r="G18" s="5">
+        <v>1.0</v>
       </c>
       <c r="H18" s="2">
         <v>0.313</v>
@@ -1807,8 +1805,8 @@
       <c r="F44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="2">
-        <v>0.33</v>
+      <c r="G44" s="5">
+        <v>1.0</v>
       </c>
       <c r="H44" s="2">
         <v>0.2828</v>
@@ -2483,8 +2481,8 @@
       <c r="C64" s="2">
         <v>170.0</v>
       </c>
-      <c r="D64" s="2">
-        <v>19.0</v>
+      <c r="D64" s="5">
+        <v>9.5</v>
       </c>
       <c r="E64" s="2">
         <v>17.0</v>
@@ -2623,8 +2621,8 @@
       <c r="C68" s="2">
         <v>184.0</v>
       </c>
-      <c r="D68" s="2">
-        <v>5.8</v>
+      <c r="D68" s="5">
+        <v>9.4</v>
       </c>
       <c r="E68" s="2">
         <v>13.0</v>
@@ -2705,8 +2703,8 @@
       <c r="G70" s="2">
         <v>14.0</v>
       </c>
-      <c r="I70" s="5" t="s">
-        <v>22</v>
+      <c r="I70" s="5">
+        <v>26.0</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>13</v>
@@ -2787,7 +2785,7 @@
         <v>44458.9805714699</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C73" s="2">
         <v>180.0</v>
@@ -2827,8 +2825,8 @@
       <c r="C74" s="2">
         <v>175.0</v>
       </c>
-      <c r="D74" s="2">
-        <v>25.0</v>
+      <c r="D74" s="5">
+        <v>9.4</v>
       </c>
       <c r="E74" s="2">
         <v>3.0</v>
@@ -3457,8 +3455,8 @@
       <c r="C92" s="2">
         <v>189.0</v>
       </c>
-      <c r="D92" s="2">
-        <v>4.0</v>
+      <c r="D92" s="5">
+        <v>10.0</v>
       </c>
       <c r="E92" s="2">
         <v>2.0</v>

--- a/tempData/BB852 Class Data (Responses).xlsx
+++ b/tempData/BB852 Class Data (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="23">
   <si>
     <t>Timestamp</t>
   </si>
@@ -89,17 +89,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -127,9 +128,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -349,9 +347,9 @@
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="15" width="21.57"/>
+    <col customWidth="1" min="1" max="15" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -804,7 +802,7 @@
       <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="2">
         <v>15.0</v>
       </c>
       <c r="H14" s="2">
@@ -870,7 +868,7 @@
       <c r="F16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="2">
         <v>8.0</v>
       </c>
       <c r="H16" s="2">
@@ -936,7 +934,7 @@
       <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="2">
         <v>1.0</v>
       </c>
       <c r="H18" s="2">
@@ -1805,7 +1803,7 @@
       <c r="F44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="2">
         <v>1.0</v>
       </c>
       <c r="H44" s="2">
@@ -2481,7 +2479,7 @@
       <c r="C64" s="2">
         <v>170.0</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="2">
         <v>9.5</v>
       </c>
       <c r="E64" s="2">
@@ -2621,7 +2619,7 @@
       <c r="C68" s="2">
         <v>184.0</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="2">
         <v>9.4</v>
       </c>
       <c r="E68" s="2">
@@ -2703,7 +2701,7 @@
       <c r="G70" s="2">
         <v>14.0</v>
       </c>
-      <c r="I70" s="5">
+      <c r="I70" s="2">
         <v>26.0</v>
       </c>
       <c r="J70" s="2" t="s">
@@ -2825,7 +2823,7 @@
       <c r="C74" s="2">
         <v>175.0</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="2">
         <v>9.4</v>
       </c>
       <c r="E74" s="2">
@@ -3455,7 +3453,7 @@
       <c r="C92" s="2">
         <v>189.0</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="2">
         <v>10.0</v>
       </c>
       <c r="E92" s="2">
@@ -3513,6 +3511,531 @@
       </c>
       <c r="K93" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3">
+        <v>44820.43916681713</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="2">
+        <v>175.0</v>
+      </c>
+      <c r="D94" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E94" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0.257</v>
+      </c>
+      <c r="I94" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3">
+        <v>44820.47453605324</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="2">
+        <v>172.0</v>
+      </c>
+      <c r="D95" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E95" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="I95" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3">
+        <v>44820.479364837964</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="2">
+        <v>164.0</v>
+      </c>
+      <c r="D96" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E96" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0.2858</v>
+      </c>
+      <c r="I96" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3">
+        <v>44820.4793830787</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="2">
+        <v>181.0</v>
+      </c>
+      <c r="D97" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E97" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H97" s="2">
+        <v>0.3258</v>
+      </c>
+      <c r="I97" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3">
+        <v>44820.48006988426</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="2">
+        <v>160.0</v>
+      </c>
+      <c r="D98" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="E98" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="H98" s="2">
+        <v>0.378</v>
+      </c>
+      <c r="I98" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3">
+        <v>44820.48049347222</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="2">
+        <v>186.0</v>
+      </c>
+      <c r="D99" s="2">
+        <v>8.7</v>
+      </c>
+      <c r="E99" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="H99" s="2">
+        <v>0.2808</v>
+      </c>
+      <c r="I99" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3">
+        <v>44820.48075349537</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="2">
+        <v>178.0</v>
+      </c>
+      <c r="D100" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E100" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H100" s="2">
+        <v>0.2326</v>
+      </c>
+      <c r="I100" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3">
+        <v>44820.48297869213</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="2">
+        <v>175.0</v>
+      </c>
+      <c r="D101" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E101" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H101" s="2">
+        <v>0.261</v>
+      </c>
+      <c r="I101" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3">
+        <v>44820.4831657176</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" s="2">
+        <v>180.0</v>
+      </c>
+      <c r="D102" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E102" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H102" s="2">
+        <v>0.3034</v>
+      </c>
+      <c r="I102" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3">
+        <v>44820.721828333335</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="2">
+        <v>163.0</v>
+      </c>
+      <c r="D103" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E103" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H103" s="2">
+        <v>0.3064</v>
+      </c>
+      <c r="I103" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3">
+        <v>44820.782229641205</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="2">
+        <v>170.0</v>
+      </c>
+      <c r="D104" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="E104" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H104" s="2">
+        <v>0.3496</v>
+      </c>
+      <c r="I104" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3">
+        <v>44821.55886472222</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="2">
+        <v>157.0</v>
+      </c>
+      <c r="D105" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E105" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="H105" s="2">
+        <v>0.3767999999999</v>
+      </c>
+      <c r="I105" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3">
+        <v>44821.59979525463</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="2">
+        <v>185.0</v>
+      </c>
+      <c r="D106" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="E106" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H106" s="2">
+        <v>0.2778</v>
+      </c>
+      <c r="I106" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3">
+        <v>44822.27781451389</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="2">
+        <v>192.0</v>
+      </c>
+      <c r="D107" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E107" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H107" s="2">
+        <v>0.2486</v>
+      </c>
+      <c r="I107" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3">
+        <v>44823.53341967592</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="2">
+        <v>167.0</v>
+      </c>
+      <c r="D108" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E108" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G108" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="H108" s="2">
+        <v>0.2086</v>
+      </c>
+      <c r="I108" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
